--- a/HAW_Hamburg_Online_Services.xlsx
+++ b/HAW_Hamburg_Online_Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AI CHATBOT FOR HAW HAMBURG\haw-helper-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D079F7CD-4B94-4727-B1B1-7EF4E7DBE12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E2327-63B0-45ED-BC6C-E7B55B651DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Department of Information and Electrical Engineering - Course Timetables</t>
   </si>
   <si>
-    <t>https://www.haw-</t>
-  </si>
-  <si>
     <t>HAW Hamburg Degree Course</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Admission Requirements for a Bachelor's Degree</t>
   </si>
   <si>
-    <t>https://www.haw-hamburg.de/en/study/appli</t>
-  </si>
-  <si>
     <t>HAW Hamburg Online Service</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>https://www.stwhh.de/wohnen/wohnanlagen</t>
+  </si>
+  <si>
+    <t>https://www.haw-hamburg.de/en/university/faculty-of-engineering-and-computer-science/departments/information-and-electrical-engineering/studying-in-the-department/organising-your-studies/course-timetables/</t>
+  </si>
+  <si>
+    <t>https://www.haw-hamburg.de/en/study/applications/applying-for-a-bachelors-degree-course/admission-requirements/</t>
   </si>
 </sst>
 </file>
@@ -178,12 +178,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,14 +496,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="185.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -525,95 +526,95 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{8FCF9BB3-E18C-4D6E-964C-DE00C3719789}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
